--- a/Excel Project Dataset.xlsx
+++ b/Excel Project Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C6CB53-089D-483D-8B0A-C9909F6DEC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830C1CCE-5ADD-4425-AA4C-D93C6E62E099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot Table" sheetId="3" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Working Table'!$A$1:$N$1001</definedName>
     <definedName name="avg_age">'Pivot Table'!$A$52</definedName>
     <definedName name="avg_income_bike_purchase">'Pivot Table'!$A$46</definedName>
-    <definedName name="Avg_income_non">'Pivot Table'!$A$39</definedName>
-    <definedName name="avg_income_non_purchase">'Pivot Table'!$A$36</definedName>
+    <definedName name="Avg_income_female">'Pivot Table'!$B$46</definedName>
+    <definedName name="Avg_income_male">'Pivot Table'!$B$47</definedName>
     <definedName name="pivot">'Pivot Table'!$A$57</definedName>
     <definedName name="purchase_rate">'Pivot Table'!$D$64</definedName>
     <definedName name="purchase1">'Pivot Table'!$A$36</definedName>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8093" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8082" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -227,30 +227,6 @@
   </si>
   <si>
     <t>More Than 10 Miles</t>
-  </si>
-  <si>
-    <t>25-34</t>
-  </si>
-  <si>
-    <t>35-44</t>
-  </si>
-  <si>
-    <t>45-54</t>
-  </si>
-  <si>
-    <t>55-64</t>
-  </si>
-  <si>
-    <t>65-74</t>
-  </si>
-  <si>
-    <t>75-84</t>
-  </si>
-  <si>
-    <t>85-94</t>
-  </si>
-  <si>
-    <t>Count of Income</t>
   </si>
 </sst>
 </file>
@@ -760,7 +736,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -783,6 +759,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -828,7 +805,298 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="106">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;₱&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;₱&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="&quot;₱&quot;#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="&quot;₱&quot;#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="&quot;₱&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="&quot;₱&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -842,6 +1110,9 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -849,9 +1120,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -7354,7 +7622,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="avg_income_bike_purchase">
+      <xdr:sp macro="" textlink="Avg_income_female">
         <xdr:nvSpPr>
           <xdr:cNvPr id="51" name="TextBox 50">
             <a:extLst>
@@ -7399,7 +7667,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:fld id="{7305932F-D02A-4163-BCB9-F4F07214C887}" type="TxLink">
+            <a:fld id="{26E7FA12-FB3B-4EC4-9369-E83D88222F49}" type="TxLink">
               <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="002060"/>
@@ -7408,8 +7676,7 @@
                 <a:ea typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:pPr algn="ctr"/>
-              <a:t>$57,963</a:t>
+              <a:t>$54,581</a:t>
             </a:fld>
             <a:endParaRPr lang="en-PH" sz="1400" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -7474,27 +7741,8 @@
                 <a:ea typeface="ADLaM Display" panose="020F0502020204030204" pitchFamily="2" charset="0"/>
                 <a:cs typeface="ADLaM Display" panose="020F0502020204030204" pitchFamily="2" charset="0"/>
               </a:rPr>
-              <a:t>Average</a:t>
+              <a:t>Female Average Income</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-PH" sz="1000" b="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="002060"/>
-                </a:solidFill>
-                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="ADLaM Display" panose="020F0502020204030204" pitchFamily="2" charset="0"/>
-                <a:cs typeface="ADLaM Display" panose="020F0502020204030204" pitchFamily="2" charset="0"/>
-              </a:rPr>
-              <a:t> Income of Bike Purchasers </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-PH" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="ADLaM Display" panose="020F0502020204030204" pitchFamily="2" charset="0"/>
-              <a:cs typeface="ADLaM Display" panose="020F0502020204030204" pitchFamily="2" charset="0"/>
-            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -7506,13 +7754,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>49391</xdr:rowOff>
+      <xdr:rowOff>63502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>33866</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>165101</xdr:rowOff>
+      <xdr:rowOff>179212</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7527,7 +7775,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10004072" y="49391"/>
+          <a:off x="10004072" y="63502"/>
           <a:ext cx="1593850" cy="666043"/>
           <a:chOff x="5915048" y="31186"/>
           <a:chExt cx="1518354" cy="712854"/>
@@ -7588,7 +7836,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="Avg_income_non">
+      <xdr:sp macro="" textlink="Avg_income_male">
         <xdr:nvSpPr>
           <xdr:cNvPr id="55" name="TextBox 54">
             <a:extLst>
@@ -7633,7 +7881,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:fld id="{7A689843-7F13-402F-B796-FBDF2D60431D}" type="TxLink">
+            <a:fld id="{1FD1C6FF-052E-468F-8982-C43336257DDF}" type="TxLink">
               <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="002060"/>
@@ -7642,8 +7890,7 @@
                 <a:ea typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:pPr algn="ctr"/>
-              <a:t>$54,875</a:t>
+              <a:t>$58,063</a:t>
             </a:fld>
             <a:endParaRPr lang="en-PH" sz="1400" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -7708,7 +7955,7 @@
                 <a:ea typeface="ADLaM Display" panose="020F0502020204030204" pitchFamily="2" charset="0"/>
                 <a:cs typeface="ADLaM Display" panose="020F0502020204030204" pitchFamily="2" charset="0"/>
               </a:rPr>
-              <a:t>Average</a:t>
+              <a:t>Male</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-PH" sz="1050" b="0" baseline="0">
@@ -7719,7 +7966,7 @@
                 <a:ea typeface="ADLaM Display" panose="020F0502020204030204" pitchFamily="2" charset="0"/>
                 <a:cs typeface="ADLaM Display" panose="020F0502020204030204" pitchFamily="2" charset="0"/>
               </a:rPr>
-              <a:t> Income of Bike Non-Purchasers</a:t>
+              <a:t> Average Income</a:t>
             </a:r>
             <a:endParaRPr lang="en-PH" sz="1050" b="0">
               <a:solidFill>
@@ -24373,545 +24620,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8566AA95-1119-49B3-B0DA-DC3481FFB597}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="A19:D24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="12"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="9" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42E5B6F8-31BD-48FD-85D2-562ED4294216}" name="PivotTable16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="27">
-  <location ref="G8:I12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" sortType="ascending">
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Income" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="9" format="56" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="57" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9F2C069-70E5-472B-9B3D-AA63F76F13ED}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A51:A52" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="15">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Age" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C4F19BE-1F10-42C2-9FA3-7410928BC651}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A45:A46" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="13" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Average of Income" fld="3" subtotal="average" baseField="13" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5384E3DD-2D1E-4CB1-9E3A-CE2CEF523B3F}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A56:A57" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="15">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Income" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA3E4569-18DA-4310-83F9-917F90FDC570}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
   <location ref="A10:C16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
@@ -25066,396 +24774,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9455D215-781F-4123-99AC-E1CAFA372291}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
-  <location ref="G1:I4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="43"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea field="2" grandRow="1" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea field="2" grandRow="1" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="17" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{521BF082-A554-4861-A4AB-3ED0EDC1CFD8}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A62:B65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="13"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{806BD862-C3AB-453D-B3E1-9AC5117B5276}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="F52:G60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0">
-      <items count="17">
-        <item x="4"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="14"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item x="15"/>
-        <item x="7"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Income" fld="3" subtotal="count" baseField="11" baseItem="3"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19189CBE-D90C-4E27-B1C4-A66421F74986}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="27">
   <location ref="A26:C33" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
@@ -25632,7 +24951,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7A1AFF2-EF69-44C1-A091-08FCE3842B8F}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="27">
   <location ref="A1:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
@@ -25733,17 +25052,17 @@
     <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="43"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="8">
+    <format dxfId="101">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="13" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="100">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="99">
       <pivotArea field="2" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -25752,7 +25071,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="98">
       <pivotArea field="2" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -25761,7 +25080,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="97">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -25803,9 +25122,630 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8F95D32-7CB4-48F6-AE54-D66B2E88456E}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A38:A39" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9455D215-781F-4123-99AC-E1CAFA372291}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+  <location ref="G1:I4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="43"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="105">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="104">
+      <pivotArea field="2" grandRow="1" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="103">
+      <pivotArea field="2" grandRow="1" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="102">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="17" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42E5B6F8-31BD-48FD-85D2-562ED4294216}" name="PivotTable16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="27">
+  <location ref="G8:I12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" sortType="ascending">
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Income" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="9" format="56" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="57" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{521BF082-A554-4861-A4AB-3ED0EDC1CFD8}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A62:B65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="13"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9F2C069-70E5-472B-9B3D-AA63F76F13ED}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A51:A52" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Age" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8566AA95-1119-49B3-B0DA-DC3481FFB597}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="A19:D24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="9" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5384E3DD-2D1E-4CB1-9E3A-CE2CEF523B3F}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A56:A57" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -25857,13 +25797,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowItems count="1">
@@ -25872,9 +25806,107 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="13" hier="-1"/>
-  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of Income" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C4F19BE-1F10-42C2-9FA3-7410928BC651}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A45:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
   <dataFields count="1">
     <dataField name="Average of Income" fld="3" subtotal="average" baseField="13" baseItem="0" numFmtId="164"/>
   </dataFields>
@@ -25900,7 +25932,6 @@
     <pivotTable tabId="3" name="PivotTable4"/>
     <pivotTable tabId="3" name="PivotTable8"/>
     <pivotTable tabId="3" name="PivotTable14"/>
-    <pivotTable tabId="3" name="PivotTable15"/>
     <pivotTable tabId="3" name="PivotTable7"/>
     <pivotTable tabId="3" name="PivotTable12"/>
     <pivotTable tabId="3" name="PivotTable16"/>
@@ -25926,7 +25957,6 @@
     <pivotTable tabId="3" name="PivotTable4"/>
     <pivotTable tabId="3" name="PivotTable8"/>
     <pivotTable tabId="3" name="PivotTable14"/>
-    <pivotTable tabId="3" name="PivotTable15"/>
     <pivotTable tabId="3" name="PivotTable7"/>
     <pivotTable tabId="3" name="PivotTable12"/>
     <pivotTable tabId="3" name="PivotTable16"/>
@@ -25954,7 +25984,6 @@
     <pivotTable tabId="3" name="PivotTable12"/>
     <pivotTable tabId="3" name="PivotTable13"/>
     <pivotTable tabId="3" name="PivotTable14"/>
-    <pivotTable tabId="3" name="PivotTable15"/>
     <pivotTable tabId="3" name="PivotTable4"/>
     <pivotTable tabId="3" name="PivotTable7"/>
     <pivotTable tabId="3" name="PivotTable8"/>
@@ -26282,7 +26311,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26319,13 +26348,13 @@
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -26458,10 +26487,10 @@
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="12">
         <v>166</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="12">
         <v>200</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -26478,10 +26507,10 @@
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="12">
         <v>92</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="12">
         <v>77</v>
       </c>
     </row>
@@ -26489,10 +26518,10 @@
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="12">
         <v>67</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="12">
         <v>95</v>
       </c>
     </row>
@@ -26500,10 +26529,10 @@
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="12">
         <v>116</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="12">
         <v>76</v>
       </c>
     </row>
@@ -26511,10 +26540,10 @@
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="12">
         <v>78</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="12">
         <v>33</v>
       </c>
     </row>
@@ -26544,13 +26573,13 @@
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="12">
         <v>71</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="12">
         <v>39</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="12">
         <v>110</v>
       </c>
     </row>
@@ -26558,13 +26587,13 @@
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="12">
         <v>318</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="12">
         <v>383</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="12">
         <v>701</v>
       </c>
     </row>
@@ -26572,13 +26601,13 @@
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="12">
         <v>130</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="12">
         <v>59</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="12">
         <v>189</v>
       </c>
     </row>
@@ -26586,13 +26615,13 @@
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="12">
         <v>519</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="12">
         <v>481</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="12">
         <v>1000</v>
       </c>
     </row>
@@ -26681,129 +26710,59 @@
         <v>57962.577962577961</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>54874.759152215796</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>57962.577962577961</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="1">
+        <v>54580.777096114522</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="1">
+        <v>58062.62230919765</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="1">
+        <v>56360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="8">
         <v>44.162999999999997</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F53" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G53">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G54">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F55" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G55">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>39</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G56">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56360</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G57">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F58" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F59" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F60" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G60">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>37</v>
       </c>
@@ -26811,22 +26770,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="12">
         <v>519</v>
       </c>
       <c r="D63" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="12">
         <v>481</v>
       </c>
       <c r="D64" s="9">
@@ -26838,7 +26797,7 @@
       <c r="A65" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="12">
         <v>1000</v>
       </c>
     </row>
@@ -26852,7 +26811,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
